--- a/Code/app/public/template/VM.xlsx
+++ b/Code/app/public/template/VM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,211 +19,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_data_.len%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HostName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OS Version</t>
+  </si>
+  <si>
+    <t>VMCluster Name</t>
+  </si>
+  <si>
+    <t>ProjectCode</t>
+  </si>
+  <si>
+    <t>ProjectContact</t>
+  </si>
+  <si>
+    <t>RID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataPortIP</t>
+  </si>
+  <si>
+    <t>ATLPortIP</t>
+  </si>
+  <si>
+    <t>NoOfCPU</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
   <si>
     <t>&lt;%=rs1.status%&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assigned Memory(GB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assigned CPU Cores</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disk Volume Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSV Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disk Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hostname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VM Cluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Host IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATL IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extra Ips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tenant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Created At</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Updated At</t>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=_data_.len%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serial Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.serialNumber%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.model%&gt;</t>
+    <t>&lt;%=rs1.hostname%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.OS%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.VMClusterName%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.projectCode%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.projectContact%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.ATLIP%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.assignedCPUCores%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.CPUType%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.dataCenterName%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.dataPortIP%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_.dataList%&gt;&lt;%=rs1.rid%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;%=rs1.assignedMemory%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.assignedCPUCores%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.diskVolumeName%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.CSVName%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.diskSize%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.hostname%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.VMClusterName%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.OS%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.serverRole%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.hostIP%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.ATLIP%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.magementHost%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Management Host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.extraIPs%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.remarks%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.projectCode%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.projectContact%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.projectManager%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.section%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.tenant%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.createdAt%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.updatedAt%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_.dataList%&gt;&lt;%=rs1.id%&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -398,76 +294,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,235 +600,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="26" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="188" customWidth="1"/>
+    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="37.375" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="2"/>
+      <c r="N4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:L4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
